--- a/dados/shop pratico.xlsx
+++ b/dados/shop pratico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:227596415#searchVariation=MLB24154371&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:227596415#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:227596415#searchVariation=MLB27970249&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:227596415#searchVariation=MLB27970249&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -521,17 +547,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:227596415#searchVariation=MLB21562641&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:227596415#searchVariation=MLB21562641&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -546,17 +582,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:227596415#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:227596415#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -571,17 +617,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:227596415#searchVariation=MLB24006449&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:227596415#searchVariation=MLB24006449&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -596,17 +652,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:227596415#searchVariation=MLB27999036&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:227596415#searchVariation=MLB27999036&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -621,17 +683,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:227596415#searchVariation=MLB21455208&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:227596415#searchVariation=MLB21455208&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -646,17 +718,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:227596415#searchVariation=MLB21320712&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:227596415#searchVariation=MLB21320712&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -671,17 +753,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:227596415#searchVariation=MLB26854417&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:227596415#searchVariation=MLB26854417&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -696,17 +788,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:227596415#searchVariation=MLB21392652&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:227596415#searchVariation=MLB21392652&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -721,17 +823,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:227596415#searchVariation=MLB34210379&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:227596415#searchVariation=MLB34210379&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -746,17 +854,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:227596415#searchVariation=MLB24834408&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:227596415#searchVariation=MLB24834408&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -771,17 +889,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:227596415#searchVariation=MLB28687615&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:227596415#searchVariation=MLB28687615&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -796,17 +920,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:227596415#searchVariation=MLB21621306&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:227596415#searchVariation=MLB21621306&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -821,17 +955,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:227596415#searchVariation=MLB23456525&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:227596415#searchVariation=MLB23456525&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -846,17 +990,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:227596415#searchVariation=MLB33435981&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:227596415#searchVariation=MLB33435981&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -871,17 +1021,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:227596415#searchVariation=MLB28357019&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:227596415#searchVariation=MLB28357019&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -896,17 +1052,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:227596415#searchVariation=MLB23998473&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:227596415#searchVariation=MLB23998473&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -921,17 +1087,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:227596415#searchVariation=MLB30476096&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:227596415#searchVariation=MLB30476096&amp;position=26&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -946,17 +1118,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:227596415#searchVariation=MLB30464905&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:227596415#searchVariation=MLB30464905&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -971,17 +1149,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:227596415#searchVariation=MLB31403178&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:227596415#searchVariation=MLB31403178&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -996,17 +1180,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:227596415#searchVariation=MLB26091477&amp;position=26&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:227596415#searchVariation=MLB26091477&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1215,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-preto-com-verde-k600-m/p/MLB28056168?pdp_filters=seller_id:227596415#searchVariation=MLB28056168&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-preto-com-verde-k600-m/p/MLB28056168?pdp_filters=seller_id:227596415#searchVariation=MLB28056168&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1246,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:227596415#searchVariation=MLB28243528&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:227596415#searchVariation=MLB28243528&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1277,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640386252-fonte-carregador-automotivo-jfa-storm-40a-bivolt-voltamp-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2640386252-fonte-carregador-automotivo-jfa-storm-40a-bivolt-voltamp-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1312,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642363094-fonte-jfa-200-storm-monovolt-voltamp-para-modulo-automotivo-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642363094-fonte-jfa-200-storm-monovolt-voltamp-para-modulo-automotivo-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1347,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3288375845-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3288375845-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1378,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3348510540-fonte-carregador-automotivo-jfa-storm-200-amperes-sci-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3348510540-fonte-carregador-automotivo-jfa-storm-200-amperes-sci-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1413,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3348316634-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3348316634-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1448,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3287832201-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3287832201-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1483,23 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1011507679-controle-som-longa-distancia-jfa-k1200-azul-alcance-1200-mt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1011507679-controle-som-longa-distancia-jfa-k1200-azul-alcance-1200-mt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1246,17 +1514,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4051614000-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4051614000-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1545,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3348494984-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3348494984-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1580,23 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:227596415#searchVariation=MLB34245679&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:227596415#searchVariation=MLB34245679&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1611,23 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3549434493-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3549434493-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1346,17 +1642,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3323988125-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3323988125-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1371,17 +1677,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3348469250-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=177182710708#searchVariation%3D177182710708%26position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3348469250-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=177182710708#searchVariation%3D177182710708%26position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1712,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717116602-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717116602-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1747,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2969484411-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2969484411-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1446,17 +1782,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640310770-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2640310770-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1471,17 +1817,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642107531-fonte-jfa-70-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642107531-fonte-jfa-70-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1852,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2641738515-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2641738515-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1887,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3319995819-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3319995819-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1546,17 +1922,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3322441391-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3322441391-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1571,17 +1957,23 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1011572142-kit-2-controles-longa-distancia-jfa-k1200-vermelho-200-mt-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1011572142-kit-2-controles-longa-distancia-jfa-k1200-vermelho-200-mt-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1596,17 +1988,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642150646-fonte-jfa-120-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642150646-fonte-jfa-120-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1621,17 +2023,23 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1008127611-kit-2-controles-longa-distancia-jfa-preto-com-cinza-k600-m-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1008127611-kit-2-controles-longa-distancia-jfa-preto-com-cinza-k600-m-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1646,17 +2054,23 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1011566977-controle-longa-distancia-jfa-k1200-vermelho-alcance-1200-mt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1011566977-controle-longa-distancia-jfa-k1200-vermelho-alcance-1200-mt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>
@@ -1671,17 +2085,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640192838-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D51ae54d0-1e5a-4de8-8814-a501ac21eaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2640192838-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
         </is>
       </c>
     </row>

--- a/dados/shop pratico.xlsx
+++ b/dados/shop pratico.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,22 +476,22 @@
           <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>610.0599999999999</v>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,28 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:227596415#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:227596415#searchVariation=MLB24154371&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>108.81</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>422.93</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -532,29 +536,25 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:227596415#searchVariation=MLB27970249&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:227596415#searchVariation=MLB21562641&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>422.93</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>108.81</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -567,7 +567,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:227596415#searchVariation=MLB21562641&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:227596415#searchVariation=MLB27970249&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -577,14 +577,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>845.87</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -592,7 +592,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:227596415#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:227596415#searchVariation=MLB21348561&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -612,22 +612,18 @@
           <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>736.61</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -637,7 +633,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:227596415#searchVariation=MLB24006449&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:227596415#searchVariation=MLB24006449&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -647,13 +643,13 @@
           <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>108.81</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -668,32 +664,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:227596415#searchVariation=MLB27999036&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:227596415#searchVariation=MLB27999036&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>493.42</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>326.53</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -703,7 +699,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:227596415#searchVariation=MLB21455208&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:227596415#searchVariation=MLB23456525&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -713,14 +709,14 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>443.07</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -728,7 +724,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -738,7 +734,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:227596415#searchVariation=MLB21320712&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:227596415#searchVariation=MLB21320712&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -748,14 +744,14 @@
           <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>694.8200000000001</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -763,7 +759,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -773,7 +769,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:227596415#searchVariation=MLB26854417&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:227596415#searchVariation=MLB26854417&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -783,14 +779,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>634.4</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -798,7 +794,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -808,28 +804,32 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:227596415#searchVariation=MLB21392652&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:227596415#searchVariation=MLB21392652&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>493.42</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -839,29 +839,25 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:227596415#searchVariation=MLB34210379&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:227596415#searchVariation=MLB21455208&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -874,25 +870,29 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:227596415#searchVariation=MLB24834408&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:227596415#searchVariation=MLB34210379&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>60.12</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>624.33</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -905,29 +905,25 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:227596415#searchVariation=MLB28687615&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:227596415#searchVariation=MLB24834408&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>60.12</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -940,23 +936,23 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:227596415#searchVariation=MLB21621306&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:227596415#searchVariation=MLB28687615&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>364.95</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>402.79</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -965,7 +961,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -975,25 +971,29 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:227596415#searchVariation=MLB23456525&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:227596415#searchVariation=MLB21621306&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>365.65</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>479.81</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1006,28 +1006,28 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:227596415#searchVariation=MLB33435981&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:227596415#searchVariation=MLB23998473&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="C18" t="inlineStr">
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C18" t="n">
+        <v>365.65</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1037,29 +1037,25 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:227596415#searchVariation=MLB28357019&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:227596415#searchVariation=MLB33435981&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>536.26</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1072,7 +1068,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:227596415#searchVariation=MLB23998473&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:227596415#searchVariation=MLB28357019&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -1082,13 +1078,13 @@
           <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>56.9</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1103,7 +1099,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:227596415#searchVariation=MLB30476096&amp;position=26&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:227596415#searchVariation=MLB30476096&amp;position=26&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -1113,18 +1109,18 @@
           <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>681.8200000000001</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1134,7 +1130,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:227596415#searchVariation=MLB30464905&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:227596415#searchVariation=MLB30464905&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -1144,13 +1140,13 @@
           <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>57.06</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -1165,7 +1161,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:227596415#searchVariation=MLB31403178&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:227596415#searchVariation=MLB31403178&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -1175,14 +1171,14 @@
           <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>845.87</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1200,7 +1196,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:227596415#searchVariation=MLB26091477&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:227596415#searchVariation=MLB26091477&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -1210,13 +1206,13 @@
           <t>Kit 2 Controles Longa Distancia Jfa Preto Com Verde K600 M</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>150.39</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
@@ -1231,60 +1227,60 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-preto-com-verde-k600-m/p/MLB28056168?pdp_filters=seller_id:227596415#searchVariation=MLB28056168&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-preto-com-verde-k600-m/p/MLB28056168?pdp_filters=seller_id:227596415#searchVariation=MLB28056168&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>61.74</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>Fonte Carregador Automotivo Jfa Storm 40a Bivolt Volt/amp</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>402.79</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:227596415#searchVariation=MLB28243528&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2640386252-fonte-carregador-automotivo-jfa-storm-40a-bivolt-voltamp-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 40a Bivolt Volt/amp</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Jfa 200 Storm Monovolt Volt/amp Para Módulo Automotivo</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>774.88</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1292,28 +1288,28 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640386252-fonte-carregador-automotivo-jfa-storm-40a-bivolt-voltamp-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2642363094-fonte-jfa-200-storm-monovolt-voltamp-para-modulo-automotivo-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200 Storm Monovolt Volt/amp Para Módulo Automotivo</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
+          <t>Fonte Carregador Automotivo Jfa Storm 200 Amperes Sci Bivolt</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>805.59</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1322,38 +1318,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642363094-fonte-jfa-200-storm-monovolt-voltamp-para-modulo-automotivo-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3348510540-fonte-carregador-automotivo-jfa-storm-200-amperes-sci-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>385.22</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>365.71</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1363,29 +1363,25 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3288375845-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3323988125-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 200 Amperes Sci Bivolt</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>61.74</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1393,34 +1389,30 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3348510540-fonte-carregador-automotivo-jfa-storm-200-amperes-sci-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:227596415#searchVariation=MLB28243528&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>539.74</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>411.36</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1433,7 +1425,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3348316634-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4051614000-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -1443,17 +1435,17 @@
           <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>390.43</v>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>FONTE 60A LITE</t>
         </is>
       </c>
+      <c r="C31" t="n">
+        <v>349.33</v>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1468,7 +1460,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3287832201-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3287832201-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -1478,13 +1470,13 @@
           <t>Controle Som Longa Distancia Jfa K1200 Azul Alcance 1200 Mt</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>56.9</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
@@ -1499,23 +1491,23 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1011507679-controle-som-longa-distancia-jfa-k1200-azul-alcance-1200-mt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1011507679-controle-som-longa-distancia-jfa-k1200-azul-alcance-1200-mt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>411.36</v>
-      </c>
-      <c r="C33" t="inlineStr">
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C33" t="n">
+        <v>763.13</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
@@ -1530,7 +1522,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4051614000-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3549434493-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -1540,14 +1532,14 @@
           <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>624.33</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1555,7 +1547,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1565,7 +1557,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3348494984-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3348494984-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -1575,13 +1567,13 @@
           <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>56.9</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
@@ -1596,25 +1588,29 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:227596415#searchVariation=MLB34245679&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:227596415#searchVariation=MLB34245679&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>763.13</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1627,23 +1623,23 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3549434493-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3348469250-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=177182710708#searchVariation%3D177182710708%26position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>408.73</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>539.74</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1657,28 +1653,28 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3323988125-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2915754200-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>694.8200000000001</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>523.63</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1697,23 +1693,23 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3348469250-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=177182710708#searchVariation%3D177182710708%26position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2969484411-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Jfa 70 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>523.63</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1727,28 +1723,28 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717116602-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2642107531-fonte-jfa-70-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>634.4</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1762,12 +1758,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2969484411-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717116602-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -1777,14 +1773,14 @@
           <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>473.28</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1802,23 +1798,23 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640310770-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2640310770-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Jfa 70 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>443.07</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1837,7 +1833,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642107531-fonte-jfa-70-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3319995819-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -1847,14 +1843,14 @@
           <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>493.42</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1872,64 +1868,60 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2641738515-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2641738515-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>610.0599999999999</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3319995819-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3322441391-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Kit  2 Controles Longa Distancia Jfa K1200 Vermelho 200 Mt</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>184.88</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1937,30 +1929,34 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3322441391-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1011572142-kit-2-controles-longa-distancia-jfa-k1200-vermelho-200-mt-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kit  2 Controles Longa Distancia Jfa K1200 Vermelho 200 Mt</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>184.88</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>Fonte Jfa 120 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1973,29 +1969,25 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1011572142-kit-2-controles-longa-distancia-jfa-k1200-vermelho-200-mt-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2642150646-fonte-jfa-120-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fonte Jfa 120 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Kit 2 Controles Longa Distancia Jfa Preto Com Cinza K600 M </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>170.7</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2008,25 +2000,29 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642150646-fonte-jfa-120-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1008127611-kit-2-controles-longa-distancia-jfa-preto-com-cinza-k600-m-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kit 2 Controles Longa Distancia Jfa Preto Com Cinza K600 M </t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>170.7</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>326.53</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2034,12 +2030,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1008127611-kit-2-controles-longa-distancia-jfa-preto-com-cinza-k600-m-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3287860921-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -2049,13 +2045,13 @@
           <t>Controle Longa Distancia Jfa K1200 Vermelho Alcance 1200 Mt</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
         <v>56.9</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
@@ -2070,7 +2066,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1011566977-controle-longa-distancia-jfa-k1200-vermelho-alcance-1200-mt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1011566977-controle-longa-distancia-jfa-k1200-vermelho-alcance-1200-mt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>
@@ -2080,14 +2076,14 @@
           <t>Fonte Carregador Automotivo Jfa Storm 70a Bivolt Volt/amp</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
         <v>493.42</v>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -2105,7 +2101,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640192838-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2017e041-f494-43fb-8fc7-1420f881ec70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2640192838-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
         </is>
       </c>
     </row>

--- a/dados/shop pratico.xlsx
+++ b/dados/shop pratico.xlsx
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>610.0599999999999</v>
+        <v>364.95</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,23 +501,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:227596415#searchVariation=MLB24154371&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:227596415#searchVariation=MLB23456525&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>422.93</v>
+        <v>845.87</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -526,17 +526,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:227596415#searchVariation=MLB21562641&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:227596415#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
@@ -548,13 +548,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>108.81</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -567,23 +571,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:227596415#searchVariation=MLB27970249&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:227596415#searchVariation=MLB27970249&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>845.87</v>
+        <v>681.83</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -592,17 +596,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:227596415#searchVariation=MLB21348561&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:227596415#searchVariation=MLB24154371&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
@@ -614,44 +618,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>774.88</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:227596415#searchVariation=MLB24006449&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:227596415#searchVariation=MLB24006449&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>108.81</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>499.46</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -664,32 +676,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:227596415#searchVariation=MLB27999036&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:227596415#searchVariation=MLB22144397&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>326.53</v>
+        <v>108.81</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -699,23 +711,23 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:227596415#searchVariation=MLB23456525&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:227596415#searchVariation=MLB27999036&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>443.07</v>
+        <v>422.93</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -724,7 +736,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -734,23 +746,23 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:227596415#searchVariation=MLB21320712&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:227596415#searchVariation=MLB21562641&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>694.8200000000001</v>
+        <v>402.79</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -759,17 +771,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:227596415#searchVariation=MLB26854417&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:227596415#searchVariation=MLB21621306&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
@@ -794,7 +806,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -804,7 +816,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:227596415#searchVariation=MLB21392652&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:227596415#searchVariation=MLB21392652&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
@@ -829,7 +841,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -839,25 +851,29 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:227596415#searchVariation=MLB21455208&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:227596415#searchVariation=MLB21455208&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>443.07</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -870,14 +886,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:227596415#searchVariation=MLB34210379&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:227596415#searchVariation=MLB21320712&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -886,7 +902,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>624.33</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -900,30 +916,34 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:227596415#searchVariation=MLB24834408&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:227596415#searchVariation=MLB26854417&amp;position=27&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>60.12</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>56.9</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -936,23 +956,23 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:227596415#searchVariation=MLB28687615&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:227596415#searchVariation=MLB34210379&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>402.79</v>
+        <v>624.33</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -961,7 +981,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -971,23 +991,23 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:227596415#searchVariation=MLB21621306&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:227596415#searchVariation=MLB24834408&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>479.81</v>
+        <v>60.12</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1006,28 +1026,32 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:227596415#searchVariation=MLB23998473&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:227596415#searchVariation=MLB28687615&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>365.65</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>536.26</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1037,25 +1061,29 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:227596415#searchVariation=MLB33435981&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:227596415#searchVariation=MLB23998473&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>57.06</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1068,14 +1096,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:227596415#searchVariation=MLB28357019&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:227596415#searchVariation=MLB31403178&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1084,7 +1112,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>56.9</v>
+        <v>365.65</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1099,7 +1127,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:227596415#searchVariation=MLB30476096&amp;position=26&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:227596415#searchVariation=MLB33435981&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1148,7 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1130,25 +1158,29 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:227596415#searchVariation=MLB30464905&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:227596415#searchVariation=MLB30464905&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>57.06</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>56.9</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1161,7 +1193,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:227596415#searchVariation=MLB31403178&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:227596415#searchVariation=MLB28357019&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
@@ -1196,25 +1228,29 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:227596415#searchVariation=MLB26091477&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:227596415#searchVariation=MLB26091477&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kit 2 Controles Longa Distancia Jfa Preto Com Verde K600 M</t>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>150.39</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>56.9</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1227,32 +1263,32 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-preto-com-verde-k600-m/p/MLB28056168?pdp_filters=seller_id:227596415#searchVariation=MLB28056168&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:227596415#searchVariation=MLB30476096&amp;position=26&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 40a Bivolt Volt/amp</t>
+          <t>Kit 2 Controles Longa Distancia Jfa Preto Com Verde K600 M</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>402.79</v>
+        <v>150.39</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1262,7 +1298,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640386252-fonte-carregador-automotivo-jfa-storm-40a-bivolt-voltamp-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-preto-com-verde-k600-m/p/MLB28056168?pdp_filters=seller_id:227596415#searchVariation=MLB28056168&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
@@ -1274,13 +1310,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>736.61</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1288,12 +1328,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642363094-fonte-jfa-200-storm-monovolt-voltamp-para-modulo-automotivo-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3348513754-fonte-jfa-200-storm-monovolt-voltamp-para-modulo-automotivo-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1358,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1328,32 +1368,32 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3348510540-fonte-carregador-automotivo-jfa-storm-200-amperes-sci-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3348510540-fonte-carregador-automotivo-jfa-storm-200-amperes-sci-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 40a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>365.71</v>
+        <v>402.79</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1363,25 +1403,29 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3323988125-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2640386252-fonte-carregador-automotivo-jfa-storm-40a-bivolt-voltamp-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
+          <t>Fonte Jfa 200 Storm Monovolt Volt/amp Para Módulo Automotivo</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>61.74</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>774.88</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1394,25 +1438,29 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:227596415#searchVariation=MLB28243528&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2642363094-fonte-jfa-200-storm-monovolt-voltamp-para-modulo-automotivo-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>411.36</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>624.33</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1420,28 +1468,28 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4051614000-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3348494984-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>349.33</v>
+        <v>61.74</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1460,25 +1508,29 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3287832201-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:227596415#searchVariation=MLB28243528&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Controle Som Longa Distancia Jfa K1200 Azul Alcance 1200 Mt</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>390.43</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1486,30 +1538,34 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1011507679-controle-som-longa-distancia-jfa-k1200-azul-alcance-1200-mt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3287832201-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>763.13</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>408.73</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1517,37 +1573,37 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3549434493-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3323988125-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
+          <t>Controle Som Longa Distancia Jfa K1200 Azul Alcance 1200 Mt</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>624.33</v>
+        <v>56.9</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1557,14 +1613,14 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3348494984-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1011507679-controle-som-longa-distancia-jfa-k1200-azul-alcance-1200-mt-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1573,7 +1629,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>56.9</v>
+        <v>411.36</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
@@ -1583,28 +1639,28 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:227596415#searchVariation=MLB34245679&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4051614000-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
+          <t>Fonte Jfa 120 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>694.8200000000001</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1623,27 +1679,27 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3348469250-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=177182710708#searchVariation%3D177182710708%26position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2642150646-fonte-jfa-120-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P/aparelho Original</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>539.74</v>
+        <v>90.78</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1653,34 +1709,30 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2915754200-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1957973646-controle-longa-distancia-jfa-redline-wr-paparelho-original-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>763.13</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1693,23 +1745,23 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2969484411-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3549434493-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Jfa 70 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>523.63</v>
+        <v>539.74</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1728,27 +1780,27 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642107531-fonte-jfa-70-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2915754200-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>634.4</v>
+        <v>56.9</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1763,23 +1815,23 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717116602-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:227596415#searchVariation=MLB34245679&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>473.28</v>
+        <v>523.63</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1798,23 +1850,23 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640310770-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2969484411-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>443.07</v>
+        <v>473.28</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1833,23 +1885,23 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3319995819-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2640310770-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>493.42</v>
+        <v>681.83</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1868,60 +1920,64 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2641738515-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3322441391-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+          <t>Fonte Jfa 70 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>610.0599999999999</v>
+        <v>523.63</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3322441391-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2642107531-fonte-jfa-70-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kit  2 Controles Longa Distancia Jfa K1200 Vermelho 200 Mt</t>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>184.88</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1929,28 +1985,28 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1011572142-kit-2-controles-longa-distancia-jfa-k1200-vermelho-200-mt-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717116602-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fonte Jfa 120 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>674.6799999999999</v>
+        <v>493.42</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1964,30 +2020,34 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642150646-fonte-jfa-120-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2969484818-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kit 2 Controles Longa Distancia Jfa Preto Com Cinza K600 M </t>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>170.7</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
+        <v>364.95</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1995,32 +2055,32 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1008127611-kit-2-controles-longa-distancia-jfa-preto-com-cinza-k600-m-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3287860921-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 70a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>326.53</v>
+        <v>493.42</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2035,7 +2095,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3287860921-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2640192838-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
@@ -2047,13 +2107,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>56.9</v>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2066,23 +2130,23 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1011566977-controle-longa-distancia-jfa-k1200-vermelho-alcance-1200-mt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1011566977-controle-longa-distancia-jfa-k1200-vermelho-alcance-1200-mt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 70a Bivolt Volt/amp</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 200a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>493.42</v>
+        <v>805.59</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2101,7 +2165,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640192838-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0f29c5f-8008-4f98-8e35-cb6761dc97a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2640316206-fonte-carregador-automotivo-jfa-storm-200a-bivolt-voltamp-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
         </is>
       </c>
     </row>

--- a/dados/shop pratico.xlsx
+++ b/dados/shop pratico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,1699 +483,2099 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>FONTE 60A LITE</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>364.95</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:227596415#searchVariation=MLB23456525&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:227596415#searchVariation=MLB23456525&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>845.87</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>111.15</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:227596415#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:227596415#searchVariation=MLB27970249&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>108.81</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>845.87</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:227596415#searchVariation=MLB27970249&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:227596415#searchVariation=MLB21348561&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>681.83</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>443.07</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:227596415#searchVariation=MLB24154371&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:227596415#searchVariation=MLB21320712&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>774.88</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>493.42</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:227596415#searchVariation=MLB24006449&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:227596415#searchVariation=MLB21455208&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>499.46</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>111.15</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:227596415#searchVariation=MLB22144397&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:227596415#searchVariation=MLB27999036&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>108.81</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>774.88</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:227596415#searchVariation=MLB27999036&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:227596415#searchVariation=MLB24006449&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>422.93</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>681.83</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:227596415#searchVariation=MLB21562641&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:227596415#searchVariation=MLB24154371&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>402.79</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>634.4</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:227596415#searchVariation=MLB21621306&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:227596415#searchVariation=MLB21392652&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>634.4</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>624.33</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:227596415#searchVariation=MLB21392652&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:227596415#searchVariation=MLB24834408&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>493.42</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>536.26</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:227596415#searchVariation=MLB21455208&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:227596415#searchVariation=MLB23998473&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>443.07</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>402.79</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:227596415#searchVariation=MLB21320712&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:227596415#searchVariation=MLB21621306&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>694.8200000000001</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>61.41</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:227596415#searchVariation=MLB26854417&amp;position=27&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:227596415#searchVariation=MLB28687615&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>56.9</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>422.93</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:227596415#searchVariation=MLB34210379&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:227596415#searchVariation=MLB21562641&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>624.33</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>365.65</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:227596415#searchVariation=MLB24834408&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:227596415#searchVariation=MLB33435981&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>60.12</v>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="n">
+        <v>58.13</v>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:227596415#searchVariation=MLB28687615&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:227596415#searchVariation=MLB28357019&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>536.26</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:227596415#searchVariation=MLB23998473&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:227596415#searchVariation=MLB26854417&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>57.06</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>659.09</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:227596415#searchVariation=MLB31403178&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:227596415#searchVariation=MLB30464905&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>365.65</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>58.13</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:227596415#searchVariation=MLB33435981&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:227596415#searchVariation=MLB30476096&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>681.8200000000001</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>845.87</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:227596415#searchVariation=MLB30464905&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:227596415#searchVariation=MLB26091477&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>56.9</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>58.29</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:227596415#searchVariation=MLB28357019&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:227596415#searchVariation=MLB31403178&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm 200 Amperes Sci Bivolt</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>FONTE 200A STORM</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E23" t="n">
+        <v>805.59</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:227596415#searchVariation=MLB26091477&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3348510540-fonte-carregador-automotivo-jfa-storm-200-amperes-sci-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>56.9</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>408.73</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:227596415#searchVariation=MLB30476096&amp;position=26&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3323988125-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kit 2 Controles Longa Distancia Jfa Preto Com Verde K600 M</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>150.39</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Fonte Jfa 120 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-preto-com-verde-k600-m/p/MLB28056168?pdp_filters=seller_id:227596415#searchVariation=MLB28056168&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642150646-fonte-jfa-120-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200 Storm Monovolt Volt/amp Para Módulo Automotivo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>736.61</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Kit 2 Controles Longa Distancia Jfa Preto Com Verde K600 M</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>162.35</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3348513754-fonte-jfa-200-storm-monovolt-voltamp-para-modulo-automotivo-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-preto-com-verde-k600-m/p/MLB28056168?pdp_filters=seller_id:227596415#searchVariation=MLB28056168&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 200 Amperes Sci Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>805.59</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>390.43</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3348510540-fonte-carregador-automotivo-jfa-storm-200-amperes-sci-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3287832201-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 40a Bivolt Volt/amp</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>402.79</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640386252-fonte-carregador-automotivo-jfa-storm-40a-bivolt-voltamp-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4051614000-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200 Storm Monovolt Volt/amp Para Módulo Automotivo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>774.88</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>63.07</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642363094-fonte-jfa-200-storm-monovolt-voltamp-para-modulo-automotivo-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:227596415#searchVariation=MLB28243528&amp;position=26&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>624.33</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Fonte Jfa 70 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>523.63</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3348494984-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642107531-fonte-jfa-70-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>61.74</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>523.63</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:227596415#searchVariation=MLB28243528&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2969484411-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>390.43</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Controle Som Longa Distancia Jfa K1200 Azul Alcance 1200 Mt</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>58.13</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3287832201-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1011507679-controle-som-longa-distancia-jfa-k1200-azul-alcance-1200-mt-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>408.73</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm 40a Bivolt Volt/amp</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>402.79</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3323988125-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2640386252-fonte-carregador-automotivo-jfa-storm-40a-bivolt-voltamp-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Controle Som Longa Distancia Jfa K1200 Azul Alcance 1200 Mt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>56.9</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm 70a Bivolt Volt/amp</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>523.63</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1011507679-controle-som-longa-distancia-jfa-k1200-azul-alcance-1200-mt-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2640175731-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>411.36</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>62.89</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4051614000-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB36743886?pdp_filters=seller_id:227596415#searchVariation=MLB36743886&amp;position=27&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Jfa 120 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>674.6799999999999</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>473.28</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642150646-fonte-jfa-120-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2640310770-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/aparelho Original</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>90.78</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>58.13</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1957973646-controle-longa-distancia-jfa-redline-wr-paparelho-original-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:227596415#searchVariation=MLB34245679&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>763.13</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>443.07</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3549434493-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3319995819-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>539.74</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>763.14</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2915754200-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3549434493-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>56.9</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm 70a Bivolt Volt/amp</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>493.42</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:227596415#searchVariation=MLB34245679&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2640192838-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>523.63</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kit 2 Controles Longa Distancia Jfa K1200 Azul Alcance 1200 </t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>64.65000000000001</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2969484411-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1011544459-kit-2-controles-longa-distancia-jfa-k1200-azul-alcance-1200-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>473.28</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>493.42</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640310770-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2969484818-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>681.83</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>434.42</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3322441391-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3324001189-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Jfa 70 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>523.63</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Jfa K1200 Controle Longa Distancia 1200 Metros Multi Cores</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>58.13</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642107531-fonte-jfa-70-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1932653525-jfa-k1200-controle-longa-distancia-1200-metros-multi-cores-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>634.4</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717116602-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3348469250-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=177182710708#searchVariation%3D177182710708%26position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>493.42</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>539.74</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2969484818-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2915754200-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>364.95</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Fonte Jfa 200 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>805.59</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3287860921-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642255626-fonte-jfa-200-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 70a Bivolt Volt/amp</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>493.42</v>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kit 2 Controles Longa Distancia Jfa Preto Com Cinza K600 M </t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>174.37</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640192838-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K1200 Vermelho Alcance 1200 Mt</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1011566977-controle-longa-distancia-jfa-k1200-vermelho-alcance-1200-mt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 200a Bivolt Volt/amp</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640316206-fonte-carregador-automotivo-jfa-storm-200a-bivolt-voltamp-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D93fca2ce-4596-42db-8b28-f003cd2646f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1008127611-kit-2-controles-longa-distancia-jfa-preto-com-cinza-k600-m-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
         </is>
       </c>
     </row>

--- a/dados/shop pratico.xlsx
+++ b/dados/shop pratico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,25 +493,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>364.95</v>
+        <v>421</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:227596415#searchVariation=MLB23456525&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3323988125-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Fonte Jfa 70 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>111.15</v>
+        <v>523.63</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,19 +561,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:227596415#searchVariation=MLB27970249&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2642107531-fonte-jfa-70-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,42 +583,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>845.87</v>
+        <v>375.9</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:227596415#searchVariation=MLB21348561&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:227596415#searchVariation=MLB23456525&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,16 +628,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>443.07</v>
+        <v>402.79</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -656,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:227596415#searchVariation=MLB21320712&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:227596415#searchVariation=MLB21621306&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,25 +673,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Controle Som Longa Distancia Jfa K1200 Azul Alcance 1200 Mt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>493.42</v>
+        <v>58.13</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -701,14 +701,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:227596415#searchVariation=MLB21455208&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1011507679-controle-som-longa-distancia-jfa-k1200-azul-alcance-1200-mt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,22 +718,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>111.15</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>411.35</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -741,19 +737,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:227596415#searchVariation=MLB27999036&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4051614000-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,20 +759,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>774.88</v>
+        <v>402.14</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -791,14 +787,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:227596415#searchVariation=MLB24006449&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3287832201-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,16 +804,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>681.83</v>
+        <v>443.07</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -836,14 +832,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:227596415#searchVariation=MLB24154371&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:227596415#searchVariation=MLB21320712&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,25 +849,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>634.4</v>
+        <v>58.13</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -881,14 +877,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:227596415#searchVariation=MLB21392652&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:227596415#searchVariation=MLB28357019&amp;position=26&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -898,16 +894,16 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>624.33</v>
+        <v>493.42</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -916,7 +912,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -926,14 +922,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:227596415#searchVariation=MLB24834408&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:227596415#searchVariation=MLB21455208&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -943,16 +939,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Jfa 120 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>536.26</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -961,24 +957,24 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:227596415#searchVariation=MLB23998473&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2642150646-fonte-jfa-120-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -988,25 +984,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t xml:space="preserve">Kit 2 Controles Longa Distancia Jfa K1200 Azul Alcance 1200 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>402.79</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1016,14 +1012,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:227596415#searchVariation=MLB21621306&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1011544459-kit-2-controles-longa-distancia-jfa-k1200-azul-alcance-1200-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1033,20 +1029,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>61.41</v>
+        <v>111.15</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1061,14 +1057,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:227596415#searchVariation=MLB28687615&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:227596415#searchVariation=MLB27999036&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1078,16 +1074,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>422.93</v>
+        <v>523.63</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1096,24 +1092,24 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:227596415#searchVariation=MLB21562641&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2969484411-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1123,18 +1119,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 40a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>365.65</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
+        <v>402.79</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -1147,14 +1147,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:227596415#searchVariation=MLB33435981&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2640386252-fonte-carregador-automotivo-jfa-storm-40a-bivolt-voltamp-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1164,25 +1164,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>58.13</v>
+        <v>552.35</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1192,14 +1192,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:227596415#searchVariation=MLB28357019&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:227596415#searchVariation=MLB23998473&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>694.8200000000001</v>
+        <v>624.33</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1227,24 +1227,24 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:227596415#searchVariation=MLB26854417&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:227596415#searchVariation=MLB24834408&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1254,18 +1254,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>659.09</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -1278,14 +1282,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:227596415#searchVariation=MLB30464905&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:227596415#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1295,20 +1299,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>58.13</v>
+        <v>774.88</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1318,19 +1322,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:227596415#searchVariation=MLB30476096&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:227596415#searchVariation=MLB24006449&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1340,20 +1344,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>845.87</v>
+        <v>447.45</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1368,14 +1372,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:227596415#searchVariation=MLB26091477&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3324001189-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1385,25 +1389,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>58.29</v>
+        <v>702.29</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1413,14 +1417,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:227596415#searchVariation=MLB31403178&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:227596415#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1430,16 +1434,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 200 Amperes Sci Bivolt</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>805.59</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1453,19 +1457,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3348510540-fonte-carregador-automotivo-jfa-storm-200-amperes-sci-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:227596415#searchVariation=MLB26854417&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1475,16 +1479,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>408.73</v>
+        <v>493.42</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1503,14 +1507,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3323988125-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2969484818-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1520,16 +1524,16 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fonte Jfa 120 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 70a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>674.6799999999999</v>
+        <v>493.42</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1543,19 +1547,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642150646-fonte-jfa-120-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2640192838-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1565,25 +1569,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Kit 2 Controles Longa Distancia Jfa Preto Com Verde K600 M</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>162.35</v>
+        <v>805.59</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1593,14 +1597,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-preto-com-verde-k600-m/p/MLB28056168?pdp_filters=seller_id:227596415#searchVariation=MLB28056168&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:227596415#searchVariation=MLB21348561&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1610,20 +1614,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>390.43</v>
+        <v>111.15</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1633,19 +1637,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3287832201-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:227596415#searchVariation=MLB27970249&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1655,18 +1659,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>388.5</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
+        <v>473.28</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1679,14 +1687,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4051614000-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2640310770-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1696,20 +1704,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 70a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>63.07</v>
+        <v>523.63</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1724,14 +1732,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:227596415#searchVariation=MLB28243528&amp;position=26&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2640175731-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1741,20 +1749,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fonte Jfa 70 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>523.63</v>
+        <v>58.13</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1764,19 +1772,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642107531-fonte-jfa-70-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:227596415#searchVariation=MLB30476096&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1786,42 +1794,38 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>382.65</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2969484411-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:227596415#searchVariation=MLB33435981&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1831,25 +1835,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Controle Som Longa Distancia Jfa K1200 Azul Alcance 1200 Mt</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>58.13</v>
+        <v>422.93</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1859,14 +1863,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1011507679-controle-som-longa-distancia-jfa-k1200-azul-alcance-1200-mt-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:227596415#searchVariation=MLB21562641&amp;position=27&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1876,25 +1880,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 40a Bivolt Volt/amp</t>
+          <t>Jfa K1200 Controle Longa Distancia 1200 Metros Multi Cores</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>402.79</v>
+        <v>58.13</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1904,14 +1908,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640386252-fonte-carregador-automotivo-jfa-storm-40a-bivolt-voltamp-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1932653525-jfa-k1200-controle-longa-distancia-1200-metros-multi-cores-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1921,20 +1925,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 70a Bivolt Volt/amp</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>523.63</v>
+        <v>61.41</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1944,19 +1948,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640175731-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:227596415#searchVariation=MLB28687615&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1966,20 +1970,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>62.89</v>
+        <v>845.87</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1994,14 +1998,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB36743886?pdp_filters=seller_id:227596415#searchVariation=MLB36743886&amp;position=27&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:227596415#searchVariation=MLB26091477&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2011,22 +2015,18 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>473.28</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>763.13</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2039,14 +2039,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640310770-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3549434493-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2056,16 +2056,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>58.13</v>
+        <v>58.29</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2084,14 +2084,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:227596415#searchVariation=MLB34245679&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:227596415#searchVariation=MLB31403178&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2101,20 +2101,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
+          <t>2 Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>443.07</v>
+        <v>174.37</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2129,14 +2129,14 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3319995819-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1014318567-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2155,29 +2155,29 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>763.14</v>
+        <v>659.09</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3549434493-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:227596415#searchVariation=MLB30464905&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2187,20 +2187,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 70a Bivolt Volt/amp</t>
+          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>493.42</v>
+        <v>63.07</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2210,19 +2210,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640192838-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:227596415#searchVariation=MLB28243528&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2232,16 +2232,16 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kit 2 Controles Longa Distancia Jfa K1200 Azul Alcance 1200 </t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>64.65000000000001</v>
+        <v>738.22</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2255,19 +2255,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1011544459-kit-2-controles-longa-distancia-jfa-k1200-azul-alcance-1200-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3647356584-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2277,25 +2277,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+          <t>Kit 2 Controles Longa Distancia Jfa Preto Com Verde K600 M</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>493.42</v>
+        <v>162.35</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2305,14 +2305,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2969484818-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-preto-com-verde-k600-m/p/MLB28056168?pdp_filters=seller_id:227596415#searchVariation=MLB28056168&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2322,20 +2322,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>434.42</v>
+        <v>58.13</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2345,19 +2345,19 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3324001189-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:227596415#searchVariation=MLB34245679&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2367,20 +2367,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Jfa K1200 Controle Longa Distancia 1200 Metros Multi Cores</t>
+          <t>Fonte Jfa 200 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>58.13</v>
+        <v>845.87</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2390,19 +2390,19 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1932653525-jfa-k1200-controle-longa-distancia-1200-metros-multi-cores-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2642223639-fonte-jfa-200-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2412,20 +2412,20 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
+          <t xml:space="preserve">Kit 2 Controles Longa Distancia Jfa Preto Com Cinza K600 M </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>694.8200000000001</v>
+        <v>174.37</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2440,14 +2440,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3348469250-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=177182710708#searchVariation%3D177182710708%26position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1008127611-kit-2-controles-longa-distancia-jfa-preto-com-cinza-k600-m-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2457,16 +2457,16 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+          <t>Fonte Jfa 200 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>539.74</v>
+        <v>805.59</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2480,19 +2480,19 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2915754200-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2642255626-fonte-jfa-200-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2502,20 +2502,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>805.59</v>
+        <v>62.89</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642255626-fonte-jfa-200-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB36743886?pdp_filters=seller_id:227596415#searchVariation=MLB36743886&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2547,35 +2547,1459 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>539.74</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2915754200-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3348469250-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=177182710708#searchVariation%3D177182710708%26position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Kit 2 Controles Longa Distancia Jfa K1200 Azul Alcance 1200</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>188.86</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-k1200-azul-alcance-1200/p/MLB28445719?pdp_filters=seller_id:227596415#searchVariation=MLB28445719&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=e18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Controle Remoto Jfa K600 600m Preto Verde</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>111.15</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-k600-600m-preto-verde/p/MLB28509408?pdp_filters=seller_id:227596415#searchVariation=MLB28509408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=e18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>443.07</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3319995819-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>422.93</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3319996591-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>590.5599999999999</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3292704047-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Fonte Jfa 200 Storm Monovolt Volt/amp Para Módulo Automotivo</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>736.61</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3153563442-fonte-jfa-200-storm-monovolt-voltamp-para-modulo-automotivo-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Kit 2 Controle Remot Longa Distancia Jfa K600  Preto Laranja</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>174.37</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1019343299-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>443.07</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2969330164-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>684.23</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4314557898-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Verde Com Preto K600 M Remoto</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>122.55</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-878562982-controle-longa-distancia-jfa-verde-com-preto-k600-m-remoto-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>499.46</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2915788930-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>382.65</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3450729841-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Preto Com Cinza K600 M Remoto</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>122.55</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1008118840-controle-longa-distancia-jfa-preto-com-cinza-k600-m-remoto-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Controle Remoto Longa Distancia Jfa K600  Preto Laranja</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>63.07</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1019337597-controle-remoto-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Kit 2 Controle Remot Longa Distancia Jfa K600  Preto Laranja</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>162.35</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1019345222-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm 200a Bivolt Volt/amp</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>805.59</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2640316206-fonte-carregador-automotivo-jfa-storm-200a-bivolt-voltamp-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2 Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>162.35</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1014290539-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Controle Som Longa Distancia Jfa K1200 Preto Alcance 1200 Mt</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>62.89</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1173976217-controle-som-longa-distancia-jfa-k1200-preto-alcance-1200-mt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>552.35</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3498481606-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>634.4</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717116602-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>443.07</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717145321-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>421</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3323978011-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>473.28</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2969365371-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>493.42</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2641738515-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Conversor Rca Remoto Adaptador Slim Jfa</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-805782178-conversor-rca-remoto-adaptador-slim-jfa-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Conversor Rca Remoto Adaptador Slim Jfa</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1173692203-conversor-rca-remoto-adaptador-slim-jfa-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza 600 Metro</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>58.29</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-904774441-controle-longa-distancia-jfa-k600-branco-com-cinza-600-metro-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>443.07</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717176608-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t xml:space="preserve">Kit 2 Controles Longa Distancia Jfa Preto Com Cinza K600 M </t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v>174.37</v>
-      </c>
-      <c r="F48" t="inlineStr">
+      <c r="E78" t="n">
+        <v>162.35</v>
+      </c>
+      <c r="F78" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1008130606-kit-2-controles-longa-distancia-jfa-preto-com-cinza-k600-m-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Preto Com Verde K600 M Remoto</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>122.55</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1008127611-kit-2-controles-longa-distancia-jfa-preto-com-cinza-k600-m-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7a9062ca-f564-4e5e-b000-947d9b65ba9f</t>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1018325408-controle-longa-distancia-jfa-preto-com-verde-k600-m-remoto-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>shop pratico</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Preto E Verde</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3558417209-controle-longa-distncia-jfa-k1200-preto-e-verde-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
         </is>
       </c>
     </row>

--- a/dados/shop pratico.xlsx
+++ b/dados/shop pratico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,16 +493,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 40a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>421</v>
+        <v>445.99</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -511,24 +511,24 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3323988125-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2963218093-fonte-carregador-automotivo-jfa-storm-40a-bivolt-voltamp-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,42 +538,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Jfa 70 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>523.63</v>
+        <v>420.99</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642107531-fonte-jfa-70-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3323988125-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,16 +583,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>375.9</v>
+        <v>694.92</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -606,19 +606,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:227596415#searchVariation=MLB23456525&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:227596415#wid=MLB3193142408&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,20 +628,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>402.79</v>
+        <v>435.62</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -656,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:227596415#searchVariation=MLB21621306&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:227596415#wid=MLB3667232120&amp;sid=search&amp;searchVariation=MLB21562641&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,22 +673,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Controle Som Longa Distancia Jfa K1200 Azul Alcance 1200 Mt</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>712.5</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -696,19 +692,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1011507679-controle-som-longa-distancia-jfa-k1200-azul-alcance-1200-mt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3549434493-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,38 +714,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>411.35</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+        <v>643.0599999999999</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4051614000-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3348494984-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,16 +759,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>402.14</v>
+        <v>715.66</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -787,14 +787,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3287832201-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:227596415#wid=MLB4668002280&amp;sid=search&amp;searchVariation=MLB26854417&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -804,25 +804,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>443.07</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -832,14 +832,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:227596415#searchVariation=MLB21320712&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:227596415#wid=MLB3556297541&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -849,20 +849,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Fonte Jfa 70 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>58.13</v>
+        <v>539.34</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -872,19 +872,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:227596415#searchVariation=MLB28357019&amp;position=26&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2642107531-fonte-jfa-70-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -894,25 +894,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>493.42</v>
+        <v>60.29</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -922,14 +922,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:227596415#searchVariation=MLB21455208&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:227596415#wid=MLB4285117622&amp;sid=search&amp;searchVariation=MLB27999036&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -939,20 +939,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Jfa 120 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>674.6799999999999</v>
+        <v>487.48</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -967,14 +967,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642150646-fonte-jfa-120-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2969365371-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kit 2 Controles Longa Distancia Jfa K1200 Azul Alcance 1200 </t>
+          <t>Kit  2 Controles Longa Distancia Jfa K1200 Vermelho 200 Mt</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>64.65000000000001</v>
+        <v>198.8</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1007,19 +1007,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1011544459-kit-2-controles-longa-distancia-jfa-k1200-azul-alcance-1200-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1011572142-kit-2-controles-longa-distancia-jfa-k1200-vermelho-200-mt-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1029,25 +1029,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>111.15</v>
+        <v>514.45</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1057,14 +1057,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:227596415#searchVariation=MLB27999036&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:227596415#wid=MLB3267247857&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1083,33 +1083,33 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>523.63</v>
+        <v>508.22</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2969484411-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:227596415#wid=MLB3190634433&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1119,20 +1119,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 40a Bivolt Volt/amp</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>402.79</v>
+        <v>447.46</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1142,19 +1142,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640386252-fonte-carregador-automotivo-jfa-storm-40a-bivolt-voltamp-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3323978011-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1164,20 +1164,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>552.35</v>
+        <v>829.76</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1192,14 +1192,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:227596415#searchVariation=MLB23998473&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:227596415#wid=MLB3348499576&amp;sid=search&amp;searchVariation=MLB21348561&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1209,20 +1209,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>624.33</v>
+        <v>539.74</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1232,19 +1232,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:227596415#searchVariation=MLB24834408&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2915754200-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1254,20 +1254,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>634.4</v>
+        <v>552.35</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1282,14 +1282,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:227596415#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:227596415#wid=MLB3495884347&amp;sid=search&amp;searchVariation=MLB23998473&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1299,20 +1299,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>774.88</v>
+        <v>871.25</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1327,14 +1327,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:227596415#searchVariation=MLB24006449&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:227596415#wid=MLB3429328883&amp;sid=search&amp;searchVariation=MLB26091477&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1344,20 +1344,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>447.45</v>
+        <v>60.29</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1367,19 +1367,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3324001189-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:227596415#wid=MLB4285214488&amp;sid=search&amp;searchVariation=MLB27970249&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1389,25 +1389,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>702.29</v>
+        <v>508.22</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,14 +1417,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:227596415#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2641738515-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1434,42 +1434,42 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>694.8200000000001</v>
+        <v>63.47</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:227596415#searchVariation=MLB26854417&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:227596415#wid=MLB4530728464&amp;sid=search&amp;searchVariation=MLB30476096&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 70a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1488,33 +1488,33 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>493.42</v>
+        <v>539.34</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2969484818-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2640175731-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1524,25 +1524,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 70a Bivolt Volt/amp</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>493.42</v>
+        <v>702.29</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1552,14 +1552,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640192838-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:227596415#wid=MLB3797343832&amp;sid=search&amp;searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1569,25 +1569,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>805.59</v>
+        <v>456.36</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1597,14 +1597,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:227596415#searchVariation=MLB21348561&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2969330164-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1614,25 +1614,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>111.15</v>
+        <v>456.36</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1642,14 +1642,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:227596415#searchVariation=MLB27970249&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:227596415#wid=MLB3193112757&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1659,20 +1659,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>473.28</v>
+        <v>539.34</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1687,14 +1687,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640310770-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2969484411-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1704,20 +1704,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 70a Bivolt Volt/amp</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>523.63</v>
+        <v>63.47</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1727,19 +1727,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640175731-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:227596415#wid=MLB3626599581&amp;sid=search&amp;searchVariation=MLB34210379&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1749,20 +1749,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>58.13</v>
+        <v>715.66</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1772,19 +1772,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:227596415#searchVariation=MLB30476096&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3348469250-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=177182710708#searchVariation%3D177182710708%26position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>382.65</v>
+        <v>676.87</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
@@ -1818,14 +1818,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:227596415#searchVariation=MLB33435981&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:227596415#wid=MLB4431161240&amp;sid=search&amp;searchVariation=MLB30464905&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1835,25 +1835,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Kit 2 Controles Longa Distancia Jfa Preto Com Verde K600 M</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>422.93</v>
+        <v>162.35</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1863,14 +1863,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:227596415#searchVariation=MLB21562641&amp;position=27&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-preto-com-verde-k600-m/p/MLB28056168?pdp_filters=seller_id:227596415#wid=MLB4285404954&amp;sid=search&amp;searchVariation=MLB28056168&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1880,20 +1880,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Jfa K1200 Controle Longa Distancia 1200 Metros Multi Cores</t>
+          <t>2 Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>58.13</v>
+        <v>174.37</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1903,19 +1903,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1932653525-jfa-k1200-controle-longa-distancia-1200-metros-multi-cores-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1014318567-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1925,20 +1925,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>61.41</v>
+        <v>777.08</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1948,19 +1948,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:227596415#searchVariation=MLB28687615&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3647356584-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>845.87</v>
+        <v>414.87</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1993,19 +1993,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:227596415#searchVariation=MLB26091477&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:227596415#wid=MLB3193615608&amp;sid=search&amp;searchVariation=MLB21621306&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2024,29 +2024,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>763.13</v>
+        <v>375.9</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3549434493-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:227596415#wid=MLB4575890204&amp;sid=search&amp;searchVariation=MLB33435981&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2056,16 +2056,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
+          <t>Fonte Jfa 200 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>58.29</v>
+        <v>829.76</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2084,14 +2084,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:227596415#searchVariation=MLB31403178&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2642255626-fonte-jfa-200-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2101,20 +2101,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2 Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>174.37</v>
+        <v>63.47</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2124,19 +2124,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1014318567-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:227596415#wid=MLB3629512749&amp;sid=search&amp;searchVariation=MLB28357019&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2146,21 +2146,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>659.09</v>
-      </c>
-      <c r="F39" t="inlineStr"/>
+        <v>456.36</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2170,14 +2174,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:227596415#searchVariation=MLB30464905&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717176608-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2187,20 +2191,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>63.07</v>
+        <v>456.36</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2215,14 +2219,14 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:227596415#searchVariation=MLB28243528&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3319995819-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2232,20 +2236,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt</t>
+          <t>Controle Remoto Jfa K600 600m Preto Verde</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>738.22</v>
+        <v>60.29</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2255,19 +2259,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3647356584-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-k600-600m-preto-verde/p/MLB28509408?pdp_filters=seller_id:227596415#wid=MLB4285377778&amp;sid=search&amp;searchVariation=MLB28509408&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2277,16 +2281,16 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Kit 2 Controles Longa Distancia Jfa Preto Com Verde K600 M</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>162.35</v>
+        <v>590.5599999999999</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2300,19 +2304,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-preto-com-verde-k600-m/p/MLB28056168?pdp_filters=seller_id:227596415#searchVariation=MLB28056168&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3292704047-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2322,7 +2326,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho Alcance 1200 Mt</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2331,7 +2335,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>58.13</v>
+        <v>61.19</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2350,14 +2354,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:227596415#searchVariation=MLB34245679&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1011566977-controle-longa-distancia-jfa-k1200-vermelho-alcance-1200-mt-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2367,20 +2371,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>845.87</v>
+        <v>653.4299999999999</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2390,19 +2394,19 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642223639-fonte-jfa-200-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717116602-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2412,22 +2416,18 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kit 2 Controles Longa Distancia Jfa Preto Com Cinza K600 M </t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>174.37</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>676.87</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2435,19 +2435,19 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1008127611-kit-2-controles-longa-distancia-jfa-preto-com-cinza-k600-m-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4314557898-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2457,20 +2457,20 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 70a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>805.59</v>
+        <v>508.22</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2485,14 +2485,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642255626-fonte-jfa-200-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2640192838-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2502,20 +2502,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Fonte Jfa 200 Storm Bivolt Volt/amp Para Módulo Automotivo</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>62.89</v>
+        <v>871.25</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2530,14 +2530,14 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB36743886?pdp_filters=seller_id:227596415#searchVariation=MLB36743886&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=f66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2642223639-fonte-jfa-200-storm-bivolt-voltamp-para-modulo-automotivo-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2547,20 +2547,20 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+          <t xml:space="preserve">Kit 2 Controles Longa Distancia Jfa Preto Com Cinza K600 M </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>539.74</v>
+        <v>174.37</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2575,14 +2575,14 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2915754200-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1008127611-kit-2-controles-longa-distancia-jfa-preto-com-cinza-k600-m-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2592,20 +2592,20 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>694.8200000000001</v>
+        <v>514.45</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2615,19 +2615,19 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3348469250-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=177182710708#searchVariation%3D177182710708%26position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df66644c9-a0c9-4d48-9521-7148f30d512f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2915788930-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D811e9df8-9c26-45e9-ae82-bce0e57a5e9e</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2637,16 +2637,16 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Kit 2 Controles Longa Distancia Jfa K1200 Azul Alcance 1200</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>188.86</v>
+        <v>402.14</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2665,14 +2665,14 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-k1200-azul-alcance-1200/p/MLB28445719?pdp_filters=seller_id:227596415#searchVariation=MLB28445719&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=e18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3287832201-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa K600 600m Preto Verde</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza 600 Metro</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>111.15</v>
+        <v>65.23</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2705,19 +2705,19 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-k600-600m-preto-verde/p/MLB28509408?pdp_filters=seller_id:227596415#searchVariation=MLB28509408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=e18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1014285323-controle-longa-distancia-jfa-k600-branco-com-cinza-600-metro-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2727,20 +2727,20 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 200a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>443.07</v>
+        <v>829.76</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2750,19 +2750,19 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3319995819-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2640316206-fonte-carregador-automotivo-jfa-storm-200a-bivolt-voltamp-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2772,20 +2772,20 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza 600 Metro</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>422.93</v>
+        <v>60.29</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2800,14 +2800,14 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3319996591-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-904774441-controle-longa-distancia-jfa-k600-branco-com-cinza-600-metro-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2826,11 +2826,11 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>590.5599999999999</v>
+        <v>552.35</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2840,19 +2840,19 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3292704047-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3498481606-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2862,20 +2862,20 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200 Storm Monovolt Volt/amp Para Módulo Automotivo</t>
+          <t xml:space="preserve">Kit 2 Controles Longa Distancia Jfa Preto Com Cinza K600 M </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>736.61</v>
+        <v>162.35</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2890,14 +2890,14 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3153563442-fonte-jfa-200-storm-monovolt-voltamp-para-modulo-automotivo-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1008130606-kit-2-controles-longa-distancia-jfa-preto-com-cinza-k600-m-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2907,20 +2907,20 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Kit 2 Controle Remot Longa Distancia Jfa K600  Preto Laranja</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>174.37</v>
+        <v>435.62</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2930,19 +2930,19 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1019343299-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3319996591-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2952,20 +2952,20 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+          <t>Controle Longa Distância Jfa K1200 Preto E Verde</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>443.07</v>
+        <v>68.66</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2975,19 +2975,19 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2969330164-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3558417209-controle-longa-distncia-jfa-k1200-preto-e-verde-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2997,18 +2997,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
+          <t>2 Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>684.23</v>
-      </c>
-      <c r="F58" t="inlineStr"/>
+        <v>162.35</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3021,14 +3025,14 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4314557898-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1014290539-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3038,16 +3042,16 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Verde Com Preto K600 M Remoto</t>
+          <t>Kit  2 Controles Longa Distancia Jfa K1200 Vermelho 200 Mt</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>122.55</v>
+        <v>185.1</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3061,19 +3065,19 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-878562982-controle-longa-distancia-jfa-verde-com-preto-k600-m-remoto-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1011577064-kit-2-controles-longa-distancia-jfa-k1200-vermelho-200-mt-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3083,22 +3087,18 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+          <t>Kit 2 Filtro Anti Ruído Jfa P/ Rca Cd Dvd Eletromagnético</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>499.46</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3111,14 +3111,14 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2915788930-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1010617074-kit-2-filtro-anti-ruido-jfa-p-rca-cd-dvd-eletromagnetico-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
+          <t>Filtro Anti Ruído Jfa P/ Rca Cd Dvd Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3137,7 +3137,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>382.65</v>
+        <v>58.35</v>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
@@ -3152,14 +3152,14 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3450729841-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1010273747-filtro-anti-ruido-jfa-p-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3169,16 +3169,16 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Preto Com Cinza K600 M Remoto</t>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho Alcance 1200 Mt</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>122.55</v>
+        <v>66.2</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3197,14 +3197,14 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1008118840-controle-longa-distancia-jfa-preto-com-cinza-k600-m-remoto-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1011560121-controle-longa-distancia-jfa-k1200-vermelho-alcance-1200-mt-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distancia Jfa K600  Preto Laranja</t>
+          <t>Controle Longa Distancia Jfa Preto Com Cinza K600 M Remoto</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3223,11 +3223,11 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>63.07</v>
+        <v>65.23</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3242,14 +3242,14 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1019337597-controle-remoto-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1008118840-controle-longa-distancia-jfa-preto-com-cinza-k600-m-remoto-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3259,22 +3259,18 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Kit 2 Controle Remot Longa Distancia Jfa K600  Preto Laranja</t>
+          <t>Filtro Anti Ruído Jfa P/ Rca Cd Dvd Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>162.35</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>62.6</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3282,19 +3278,19 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1019345222-kit-2-controle-remot-longa-distancia-jfa-k600-preto-laranja-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1010617076-filtro-anti-ruido-jfa-p-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3304,20 +3300,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 200a Bivolt Volt/amp</t>
+          <t>Controle Longa Distancia Jfa Preto Com Verde K600 M Remoto</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>805.59</v>
+        <v>65.23</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3327,19 +3323,19 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2640316206-fonte-carregador-automotivo-jfa-storm-200a-bivolt-voltamp-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1018325408-controle-longa-distancia-jfa-preto-com-verde-k600-m-remoto-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3349,20 +3345,20 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2 Controle Longa Distancia Jfa K600 Cores Branco Tc Cinza</t>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>162.35</v>
+        <v>456.36</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3377,14 +3373,14 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1014290539-2-controle-longa-distancia-jfa-k600-cores-branco-tc-cinza-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717145321-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3394,20 +3390,20 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Controle Som Longa Distancia Jfa K1200 Preto Alcance 1200 Mt</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>62.89</v>
+        <v>447.46</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3422,14 +3418,14 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1173976217-controle-som-longa-distancia-jfa-k1200-preto-alcance-1200-mt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3324001189-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3439,16 +3435,16 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>552.35</v>
+        <v>487.48</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3462,19 +3458,19 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3498481606-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2640310770-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3484,42 +3480,42 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>634.4</v>
+        <v>539.34</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717116602-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2969484818-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3529,22 +3525,18 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+          <t>Conversor Rca Remoto Adaptador Slim Jfa</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>49.5</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3552,19 +3544,19 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717145321-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-805782178-conversor-rca-remoto-adaptador-slim-jfa-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3574,25 +3566,21 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Conversor Rca Remoto Adaptador Slim Jfa</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>421</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>44.37</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3602,14 +3590,14 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3323978011-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1173692203-conversor-rca-remoto-adaptador-slim-jfa-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3619,20 +3607,20 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+          <t>Jfa K1200 Controle Longa Distancia 1200 Metros Multi Cores</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>473.28</v>
+        <v>63.47</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3642,19 +3630,19 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2969365371-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1932653525-jfa-k1200-controle-longa-distancia-1200-metros-multi-cores-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3664,20 +3652,20 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+          <t>Controle Longa Distancia Jfa Verde Com Preto K600 M Remoto</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>493.42</v>
+        <v>122.55</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3687,319 +3675,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2641738515-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>shop pratico</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Conversor Rca Remoto Adaptador Slim Jfa</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-805782178-conversor-rca-remoto-adaptador-slim-jfa-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>shop pratico</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Conversor Rca Remoto Adaptador Slim Jfa</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1173692203-conversor-rca-remoto-adaptador-slim-jfa-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>shop pratico</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza 600 Metro</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>58.29</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-904774441-controle-longa-distancia-jfa-k600-branco-com-cinza-600-metro-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>shop pratico</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717176608-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>shop pratico</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kit 2 Controles Longa Distancia Jfa Preto Com Cinza K600 M </t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>162.35</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1008130606-kit-2-controles-longa-distancia-jfa-preto-com-cinza-k600-m-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>shop pratico</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa Preto Com Verde K600 M Remoto</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>122.55</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1018325408-controle-longa-distancia-jfa-preto-com-verde-k600-m-remoto-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>shop pratico</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K1200 Preto E Verde</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3558417209-controle-longa-distncia-jfa-k1200-preto-e-verde-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De18c749a-cf69-4874-84b4-1ff09dd38907</t>
+          <t>https://produto.mercadolivre.com.br/MLB-878562982-controle-longa-distancia-jfa-verde-com-preto-k600-m-remoto-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d65df2e-a996-42e4-9512-beb1230719d3</t>
         </is>
       </c>
     </row>
